--- a/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
+++ b/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
@@ -2,64 +2,1047 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\만족도조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2294818C-696F-48E6-86CE-D367D9778F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D403957-4C6B-4C69-A24A-56D7CB883859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1800" windowWidth="25485" windowHeight="19200" xr2:uid="{B3BC524A-BC2B-405B-8A46-FF3756EC83F4}"/>
+    <workbookView xWindow="11400" yWindow="1800" windowWidth="25485" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>넘흐좋아용호호홓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="341">
+  <si>
+    <t>결석한 날의 수업도 영상으로 볼 수 있어서 너무 좋았어요.</t>
+  </si>
+  <si>
+    <t>수업 영상 덕분에 놓친 부분 없이 수업을 따라갈 수 있었어요.</t>
+  </si>
+  <si>
+    <t>온라인 플랫폼의 사용법을 더 자세히 알려주셨으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>코딩 외에도 다양한 IT 지식을 얻을 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>조이스틱 실드와의 통신 문제로 수업에 집중하기 어려웠습니다.</t>
+  </si>
+  <si>
+    <t>놓친 부분도 영상으로 쉽게 확인하고 따라갈 수 있어서 좋았어요.</t>
+  </si>
+  <si>
+    <t>온라인 수업이라 연결 문제가 있었지만, 전반적으로 만족합니다.</t>
+  </si>
+  <si>
+    <t>코딩을 처음 배워보는데, 생각보다 어렵지 않아서 놀랐어요.</t>
+  </si>
+  <si>
+    <t>아두이노의 기초를 배우니 하드웨어에 대한 관심이 생겼어요.</t>
+  </si>
+  <si>
+    <t>더 많은 도전 과제와 프로젝트 기회를 제공해주셨으면 합니다.</t>
+  </si>
+  <si>
+    <t>디자인 씽킹'을 통해 나만의 게임을 구상하는 과정이 참신했어요.</t>
+  </si>
+  <si>
+    <t>역량향상도 테스트로 내가 얼마나 성장했는지 확인할 수 있었어요.</t>
+  </si>
+  <si>
+    <t>게임의 구성요소를 배우니 게임 제작에 대한 흥미가 생겼어요.</t>
+  </si>
+  <si>
+    <t>교재나 자료도 잘 정리되어 있어서 도움이 많이 되었습니다.</t>
+  </si>
+  <si>
+    <t>엔트리 플랫폼이 초보자에게도 친절해서 금방 게임 제작을 익힐 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드를 활용한 게임 제작이 기술적 소양을 키워줬습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 논리적 사고력을 키울 수 있게 도와주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>아이가 이렇게 코딩에 열정을 갖게 될 줄 몰랐습니다. 선생님께 감사드려요.</t>
+  </si>
+  <si>
+    <t>수업 외 시간에도 제 문제를 해결해주신 운영진분들께 진심으로 감사드립니다.</t>
+  </si>
+  <si>
+    <t>운영진분들의 빠른 대응 덕분에 아두이노 연결 문제를 해결할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>강사님과 운영진분들의 지원 덕분에 수업에 원활하게 참여할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>교구 재배송까지 해주셔서 아두이노 연결에 성공했습니다. 너무 감사드려요.</t>
+  </si>
+  <si>
+    <t>아이가 평소에 게임만 하던 것을 직접 만들어보려고 하는 모습이 놀라웠습니다.</t>
+  </si>
+  <si>
+    <t>결석한 날도 영상으로 수업 내용을 챙길 수 있어서 너무 감사했어요.</t>
+  </si>
+  <si>
+    <t>놓친 수업 내용도 영상으로 쉽게 복습할 수 있어서 너무 좋았네요.</t>
+  </si>
+  <si>
+    <t>결석했는데도 영상으로 수업 내용을 복습할 수 있어서 너무 좋았어요.</t>
+  </si>
+  <si>
+    <t>나만의 게임을 발표하며 수업을 마무리하는 시간이 가장 기억에 남아요.</t>
+  </si>
+  <si>
+    <t>기기와 컴퓨터 간의 동기화 문제로 수업 내용을 제대로 듣지 못했습니다.</t>
+  </si>
+  <si>
+    <t>내 말을 다른 언어로 번역하는 프로그램을 만들어보니 성취감이 들었어요.</t>
+  </si>
+  <si>
+    <t>내가 만든 게임을 수정하면서 더 완성도 높은 게임을 만들 수 있었어요.</t>
+  </si>
+  <si>
+    <t>조이스틱 실드 설정에 문제가 있어서 수업을 제대로 듣지 못했습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와의 통신 오류로 수업 중 내용을 제대로 파악하지 못했습니다.</t>
+  </si>
+  <si>
+    <t>흥미 위주의 좋은 수업</t>
+  </si>
+  <si>
+    <t>아이가 좋아할 만한 수업</t>
+  </si>
+  <si>
+    <t>수업이 좀 더 길어야 함</t>
+  </si>
+  <si>
+    <t>감사합니다.</t>
+  </si>
+  <si>
+    <t>너무 좋아요!</t>
+  </si>
+  <si>
+    <t>재밌었어요</t>
+  </si>
+  <si>
+    <t>만족만족</t>
+  </si>
+  <si>
+    <t>감사합니다</t>
+  </si>
+  <si>
+    <t>연결하는 건 어려웠지만 잘 도와주셔서 고마웠어요</t>
+  </si>
+  <si>
+    <t>그다지 특별하진 않았어요.</t>
+  </si>
+  <si>
+    <t>특별한 건 없었던 것 같아요.</t>
+  </si>
+  <si>
+    <t>크게 기대 이상은 아니었습니다.</t>
+  </si>
+  <si>
+    <t>특별한 느낌은 없었습니다.</t>
+  </si>
+  <si>
+    <t>그저 그랬던 것 같습니다.</t>
+  </si>
+  <si>
+    <t>별로 기억에 남지 않아요.</t>
+  </si>
+  <si>
+    <t>그다지 인상적이지 않았어요.</t>
+  </si>
+  <si>
+    <t>그냥 그랬어요.</t>
+  </si>
+  <si>
+    <t>엔트리 플랫폼의 다양한 기능을 활용해서 독창적인 게임을 만들 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드를 활용한 실제 게임 제작 경험이 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 창의력과 논리적 사고를 동시에 키울 수 있어서 너무 좋습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 설명이 상세해서 아두이노와 조이스틱 실드를 쉽게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩 수업을 통해 더 적극적이고 창의적으로 생각하는 모습이 보여서 감사합니다.</t>
+  </si>
+  <si>
+    <t>수업 후에도 집에서 계속 코딩에 관심을 갖게 되어서 놀랐습니다. 선생님께 감사드려요.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드의 원리를 배우면서 기술적인 지식도 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드를 활용한 게임 제작이 미래 교육에도 도움이 될 것 같습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 설명이 너무 빨라서 따라가기 힘들었어요.</t>
+  </si>
+  <si>
+    <t>다양한 예제를 통해 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 팁과 트릭이 도움이 많이 되었습니다.</t>
+  </si>
+  <si>
+    <t>오프라인에서도 이런 교육을 받아보고 싶습니다.</t>
+  </si>
+  <si>
+    <t>다음에는 더 어려운 주제로 도전하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>ㄹㄹ</t>
+  </si>
+  <si>
+    <t>쉬는 시간은 없어도 될 거 같다</t>
+  </si>
+  <si>
+    <t>아이가 원래 좋아하던 게임을 주제로 코딩 수업을 하게 돼서 집중도 잘하고 흥미를 갖게 된 거 같아서 좋았습니다. 다음에도 꼭 신청할게요!</t>
+  </si>
+  <si>
+    <t>재미는 있었다</t>
+  </si>
+  <si>
+    <t>나름 좋았음</t>
+  </si>
+  <si>
+    <t>선생님 최고</t>
+  </si>
+  <si>
+    <t>운영진 친절함</t>
+  </si>
+  <si>
+    <t>수업 시간이 더 길었으면 좋겠습니다</t>
+  </si>
+  <si>
+    <t>다음 수업에도 꼭 참여하고 싶습니다</t>
+  </si>
+  <si>
+    <t>코딩에 대한 관심과 흥미가 생겼어요</t>
+  </si>
+  <si>
+    <t>다른 친구들에게도 추천하고 싶어요.</t>
+  </si>
+  <si>
+    <t>더 많은 실습 시간을 원합니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업 연결이 자주 끊겼어요.</t>
+  </si>
+  <si>
+    <t>온라인 수업이라 조금 아쉬웠습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이라 조금 아쉬웠어요.</t>
+  </si>
+  <si>
+    <t>선생님의 설명이 너무 어려웠어요.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 자신감이 생겼습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 능력에 감탄했습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 스킬에 감탄했습니다.</t>
+  </si>
+  <si>
+    <t>쉬는 시간을 줄이고 수업을 더 길게 해주세요</t>
+  </si>
+  <si>
+    <t>기술적인 이슈로 인해 수업의 중요한 부분을 이해하지 못했습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 창의적인 접근법을 배우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 스타일과 방법론을 배울 수 있어서 유익했습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업 플랫폼의 UI/UX가 개선되었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>코딩 문제 해결 방법을 배울 수 있어서 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 경험과 노하우를 듣는 것이 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>매번 수업이 끝날 때마다 아이의 눈빛이 밝아보여서 기뻤습니다.</t>
+  </si>
+  <si>
+    <t>코딩의 기초부터 심화까지 체계적으로 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 기본 원리를 잘 이해하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>코딩의 다양한 알고리즘에 대해 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드의 조합이 기술적 호기심을 자극했습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 설명 덕분에 어려운 내용도 쉽게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 전략적 사고력을 키우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 논리적 사고력을 키우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노 설정이 잘 안 돼서 수업에 집중하기 힘들었습니다.</t>
+  </si>
+  <si>
+    <t>기기 설정에 너무 많은 시간이 소요되어 수업 내용을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>기술적인 문제로 수업 중 내용을 제대로 파악하지 못했습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 에러 해결 방법을 배울 수 있어서 유익했습니다.</t>
+  </si>
+  <si>
+    <t>아이가 수업을 너무 좋아해서 다음 수업도 기대하고 있어요.</t>
+  </si>
+  <si>
+    <t>조이스틱 실드와의 통신 오류로 수업에 집중하기 어려웠습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 현실적이어서 아이가 더 관심을 갖게 되었습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 친절한 설명 덕분에 아이가 쉽게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 실용적인 팁 덕분에 게임 제작이 더욱 수월했습니다.</t>
+  </si>
+  <si>
+    <t>수업 후에도 강사님께서 질문에 친절하게 답해주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>수업 중에 아이들끼리의 브레인스토밍 시간이 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 아이디어를 생각하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>수업 중에 실험적인 프로젝트를 해볼 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 중에 실제 코딩 프로젝트를 진행해볼 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 시간이 너무 짧게 느껴졌어요. 더 길었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>기기와 컴퓨터 간의 동기화 문제로 수업의 흐름을 잃었습니다.</t>
+  </si>
+  <si>
+    <t>직접 만든 게임을 가족들과 함께 즐길 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>강사님께서 아이들의 레벨에 맞게 수업을 진행해주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>ㅡㅡ</t>
+  </si>
+  <si>
+    <t>흠</t>
+  </si>
+  <si>
+    <t>보통</t>
+  </si>
+  <si>
+    <t>재밋슴</t>
+  </si>
+  <si>
+    <t>만족</t>
+  </si>
+  <si>
+    <t>ㅇㅇ</t>
+  </si>
+  <si>
+    <t>좋아요</t>
+  </si>
+  <si>
+    <t>ㅎㅎ</t>
+  </si>
+  <si>
+    <t>굿굿</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
+  </si>
+  <si>
+    <t>ㅋㅋ</t>
+  </si>
+  <si>
+    <t>좋음</t>
+  </si>
+  <si>
+    <t>재미</t>
+  </si>
+  <si>
+    <t>ㅠㅠ</t>
+  </si>
+  <si>
+    <t>좋</t>
+  </si>
+  <si>
+    <t>코딩이 생각보다 어렵지 않아서 좋았어요.</t>
+  </si>
+  <si>
+    <t>더 많은 실습 시간이 있었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 두려움이 줄어든 것 같아요.</t>
+  </si>
+  <si>
+    <t>선생님의 열정이 느껴져서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 자신감이 생긴 것 같아요.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 두려움이 사라진 것 같아요.</t>
+  </si>
+  <si>
+    <t>코딩을 처음 배워보는데 재미있었습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 도전 과제가 있었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>오프라인 수업도 있었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 친구들과 함께 참여하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 팁과 트릭이 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>시간이 너무 빨리 지나간 것 같아요.</t>
+  </si>
+  <si>
+    <t>선생님의 피드백이 부족했던 것 같아요.</t>
+  </si>
+  <si>
+    <t>아이가 집에서도 계속 연습하고 있어요!</t>
+  </si>
+  <si>
+    <t>아이가 코딩에 자신감을 갖게 되었습니다.</t>
+  </si>
+  <si>
+    <t>코딩이 생각보다 어렵지 않아서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아이가 수업 후에도 계속 연구하고 있어요.</t>
+  </si>
+  <si>
+    <t>수업 중에 실습 시간이 많아서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 열정이 느껴져서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 열정과 전문성에 감사드립니다.</t>
+  </si>
+  <si>
+    <t>선생님의 음성이 작아서 듣기 어려웠습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 아이의 창의력을 키워줬습니다.</t>
+  </si>
+  <si>
+    <t>더 다양한 코딩 언어를 배우고 싶습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 피드백이 매우 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 설명이 매우 친절해서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>코딩을 통해 창의력을 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 열정과 노력에 감사드립니다.</t>
+  </si>
+  <si>
+    <t>기술적인 이슈로 수업의 절반을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>수업 영상 제공 서비스 진짜 최고예요!</t>
+  </si>
+  <si>
+    <t>선생님이 친절하게 잘 가르쳐주셨습니다</t>
+  </si>
+  <si>
+    <t>많은 것을 알게 된 유익한 시간이었어요</t>
+  </si>
+  <si>
+    <t>다음에는 더 어려운 내용도 배우고 싶어요.</t>
+  </si>
+  <si>
+    <t>게임 만드는 경험을 해봐서 좋았습니다</t>
+  </si>
+  <si>
+    <t>직접 해보면서 배우니까 더 재미있었어요.</t>
+  </si>
+  <si>
+    <t>선생님의 설명이 이해하기 쉬웠습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 피드백이 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>엔트리 플랫폼에서 제공하는 다양한 리소스를 활용해서 풍부한 게임을 제작했습니다.</t>
+  </si>
+  <si>
+    <t>연결 문제로 고민했는데, 강사님과 운영진분들께서 너무 친절하게 도와주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드의 실제 작동 원리를 배우면서 과학적 호기심이 증가했습니다.</t>
+  </si>
+  <si>
+    <t>기기 설정 문제로 수업의 흐름을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>처음엔 어려웠지만 수업이 진행될수록 재밌고 즐거웠습니다.</t>
+  </si>
+  <si>
+    <t>코딩의 기초부터 체계적으로 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아이가 수업 중에 만든 작품을 자랑스럽게 보여주더라고요.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 스타일을 배울 수 있어서 유익했습니다.</t>
+  </si>
+  <si>
+    <t>코딩의 원리와 로직에 대해 깊게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>다음 수업 때는 더 많은 친구들과 함께 참여하고 싶네요.</t>
+  </si>
+  <si>
+    <t>수업이 너무 유익했어요. 다음에도 참여하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>다음에는 어떤 프로젝트를 만들어볼 수 있을지 기대되요.</t>
+  </si>
+  <si>
+    <t>다음에도 이런 교육 기회가 있으면 참여하고 싶어요.</t>
+  </si>
+  <si>
+    <t>교재나 자료도 잘 정리되어 있어서 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님께서 질문에도 친절하게 답변해주셔서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩에 대한 새로운 관점을 갖게 되었습니다.</t>
+  </si>
+  <si>
+    <t>시간이 어떻게 지나갔는지 모르겠어요. 너무 재밌었습니다!</t>
+  </si>
+  <si>
+    <t>강사님의 설명이 명확해서 쉽게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 세상을 발견한 것 같아요.</t>
+  </si>
+  <si>
+    <t>아이가 코딩에 대한 자신감을 얻게 해주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이지만 질의응답 시간이 충분해서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>기기 설정에 문제가 있어서 수업의 흐름을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>아두이노 설정 문제로 수업의 중요한 부분을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>직접 만든 게임을 친구들과 공유하며 자부심을 느꼈습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와의 통신 오류로 수업의 흐름을 잃었습니다.</t>
+  </si>
+  <si>
+    <t>통신 오류로 수업 중 중요한 부분을 이해하지 못했습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 재미를 깨닫게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노를 처음 접해봤는데, 이렇게 재밌을 줄 몰랐어요!</t>
+  </si>
+  <si>
+    <t>코딩을 통해 문제 해결 능력을 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와의 동기화 문제로 수업 중 내용을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이지만 실시간 피드백이 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 노하우를 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>오프라인 수업과의 차이점을 잘 느낄 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 피드백이 매우 구체적이어서 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 경험담을 듣는 것이 매우 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 기본 개념을 잘 이해할 수 있게 되었습니다.</t>
+  </si>
+  <si>
+    <t>엔트리로 달리기 경주 게임을 만들어보니 재미있었어요.</t>
+  </si>
+  <si>
+    <t>알고리즘이 무엇인지 배우니 코딩이 더 재밌어졌어요.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 노하우와 팁을 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩에 대한 자신감을 얻게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩에 대한 새로운 도전을 하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 팁과 테크닉을 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>코딩의 다양한 분야에 대해 알게 되어 흥미로웠습니다.</t>
+  </si>
+  <si>
+    <t>다양한 예제로 수업을 진행해서 지루하지 않았습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 문제 해결 능력을 키우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드의 조합이 창의력을 자극했습니다.</t>
+  </si>
+  <si>
+    <t>놓친 수업도 영상으로 확인하니까 마음이 편해졌어요.</t>
+  </si>
+  <si>
+    <t>수업 내용이 아이의 미래에 큰 도움이 될 것 같습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 경험담이 아이에게 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이지만 실습 위주의 수업이어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 실생활과 연관되어 있어서 흥미로웠습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 세상을 발견하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 논리적인 사고력을 키우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 도전을 하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 지식이 아이에게 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>수업 중에 아이들끼리의 토론 시간이 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 영상 제공 덕분에 놓친 부분 쉽게 따라갔어요!</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 기술을 배우게 되었습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작을 통해 코딩의 중요성을 깨닫게 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 새로운 발견을 하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>기술적인 문제로 인해 수업 중 중요한 내용을 놓쳤습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 테크닉이 아이에게 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>조이스틱으로 오브젝트를 제어하는 경험이 신선했어요.</t>
+  </si>
+  <si>
+    <t>아두이노 진동모터를 엔트리에서 제어하는 건 흥미로웠어요.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 노하우를 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 영상 덕분에 집에서도 복습이 가능해서 좋았네요.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 경험을 듣는 것이 너무 유익했습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 팁이 아이에게 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 팀워크의 중요성을 깨닫게 되었습니다.</t>
+  </si>
+  <si>
+    <t>온라인 환경 점검으로 수업 시작이 원활했어요.</t>
+  </si>
+  <si>
+    <t>엔트리 인공지능 번역 기능이 신기하더라고요.</t>
+  </si>
+  <si>
+    <t>북구의 7가지 목표를 알게 되어서 흥미로웠어요.</t>
+  </si>
+  <si>
+    <t>ㅁㅁ</t>
+  </si>
+  <si>
+    <t>ㄴㄴ</t>
+  </si>
+  <si>
+    <t>무난</t>
+  </si>
+  <si>
+    <t>ㅋ</t>
+  </si>
+  <si>
+    <t>ㅎ</t>
+  </si>
+  <si>
+    <t>ㅜㅜ</t>
+  </si>
+  <si>
+    <t>꿀잼</t>
+  </si>
+  <si>
+    <t>강사님의 코딩 전략을 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 실습 기회를 제공해주셨으면 합니다.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 실력과 설명 능력에 감탄했습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 아이의 코딩 스킬을 향상시켜줬습니다.</t>
+  </si>
+  <si>
+    <t>연결 문제로 인해 포기하려 했는데, 강사님께서 개인적으로 도와주셔서 수업을 이어나갈 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>연결 문제로 인해 수업에 차질이 있었는데, 강사님과 운영진분들의 도움으로 해결할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>벽에 닿으면 진동모터가 울리는 게임을 만들어보니 실제와 연동되는 느낌이 들어 좋았어요.</t>
+  </si>
+  <si>
+    <t>아이가 집에서도 계속 코딩에 관심을 갖고 연습하더라고요. 수업의 효과가 큰 것 같습니다.</t>
+  </si>
+  <si>
+    <t>아이가 이렇게 코딩에 흥미를 갖게 될 줄 몰랐어요. 수업이 끝난 후에도 계속 연습하더라고요.</t>
+  </si>
+  <si>
+    <t>교구 문제로 인해 수업 참여에 어려움이 있었는데, 새로운 교구를 보내주셔서 감사합니다.</t>
+  </si>
+  <si>
+    <t>아이가 직접 게임을 만들어보고 싶다고 해서 걱정했는데, 이 수업 덕분에 가능해진 것 같아요.</t>
+  </si>
+  <si>
+    <t>아이가 수업 중에 어려워하는 부분이 있으면 선생님께서 친절하게 설명해주셔서 안심이 됩니다.</t>
+  </si>
+  <si>
+    <t>선생님께서 주신 추가 자료로 더 많은 공부를 할 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업 플랫폼의 기능들을 잘 활용해서 수업이 진행되어 좋았습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이지만 실시간 피드백과 Q&amp;A 시간이 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>아이의 창의력과 문제 해결 능력이 키워진 것 같아서 너무 좋습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업 플랫폼의 다양한 기능을 활용한 수업이 인상적이었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩 수업을 통해 새로운 도전을 즐기게 되어서 기뻤습니다.</t>
+  </si>
+  <si>
+    <t>아이가 매일 수업 내용을 설레는 마음으로 얘기해주더라고요. 감사합니다.</t>
+  </si>
+  <si>
+    <t>게임 제작 과정에서 창의력과 문제 해결 능력이 키워진 것 같아요.</t>
+  </si>
+  <si>
+    <t>수업 후에도 추가 자료를 제공해주셔서 공부하는 데 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>엔트리 플랫폼이 사용자 친화적이라 쉽게 게임을 제작할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>조이스틱 실드로 직접 게임을 조작하는 경험이 신선하고 재미있었습니다.</t>
+  </si>
+  <si>
+    <t>게임 제작 과정에서 스스로 문제를 해결하는 모습이 인상적이었습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 노력 덕분에 아두이노 연결에 성공했습니다. 정말 감사드려요.</t>
+  </si>
+  <si>
+    <t>엔트리 플랫폼의 다양한 템플릿을 활용해서 독창적인 게임을 만들었습니다.</t>
+  </si>
+  <si>
+    <t>아두이노와 조이스틱 실드 간의 문제로 수업에 집중하기 어려웠습니다.</t>
+  </si>
+  <si>
+    <t>선생님의 음성이 작</t>
   </si>
   <si>
     <t>9번대답 작성하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만족만족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿀잼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재밌었어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감사합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌고 좋았습니다</t>
+  </si>
+  <si>
+    <t>게임이 재밌어요</t>
+  </si>
+  <si>
+    <t>연결이 어려웠어요</t>
+  </si>
+  <si>
+    <t>또 하고 싶어요</t>
+  </si>
+  <si>
+    <t>더 오래 배우고 싶어요</t>
+  </si>
+  <si>
+    <t>수업 시간이 너무 길었습니다</t>
+  </si>
+  <si>
+    <t>쉬는 시간이 너무 길어요</t>
+  </si>
+  <si>
+    <t>쉬는 시간이 너무 짧아요</t>
+  </si>
+  <si>
+    <t>코딩이 생각보다 재밌네요!</t>
+  </si>
+  <si>
+    <t>코딩에 대한 흥미를 더욱 느낄 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 매일 수업에 참여하는 것을 기대하더라고요.</t>
+  </si>
+  <si>
+    <t>수업 중에 질문을 할 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 실습과제를 제공해주셨으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 열정이 느껴져서 아이도 열심히 했어요.</t>
+  </si>
+  <si>
+    <t>선생님의 코딩 경험담을 듣는 것이 흥미로웠습니다.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 두려움이 완전히 사라진 것 같아요.</t>
+  </si>
+  <si>
+    <t>아이가 새로운 친구들을 만나서 좋아했습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 피드백이 아이에게 큰 도움이 되었습니다.</t>
+  </si>
+  <si>
+    <t>코딩에 대한 새로운 시각을 얻을 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업 플랫폼의 안정성이 더 개선되었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>평소에 게임을 좋아했는데 직접 만들어볼 수 있어서 재밌었어요</t>
+  </si>
+  <si>
+    <t>선생님의 설명 덕분에 어려운 내용도 쉽게 이해할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>온라인 수업이라서 집에서 편하게 들을 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 중간에 연결 문제가 생겼는데, 강사님께서 바로 도와주셔서 문제 없이 수업을 이어나갈 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>재미있음</t>
+  </si>
+  <si>
+    <t>그냥그래요</t>
+  </si>
+  <si>
+    <t>그럭저럭</t>
+  </si>
+  <si>
+    <t>음...</t>
+  </si>
+  <si>
+    <t>노코멘트</t>
+  </si>
+  <si>
+    <t>바닷속 이야기를 통해 알고리즘을 배우니 실제로 적용해보는 느낌이 들었어요.</t>
+  </si>
+  <si>
+    <t>기기와 컴퓨터 간의 통신에 문제가 있어서 수업 내용을 제대로 듣지 못했습니다.</t>
+  </si>
+  <si>
+    <t>강사님의 경험담을 듣는 것이 너무 재미있었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 창의력을 발휘하게 되었습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 아이의 생각을 확장시켜줬습니다.</t>
+  </si>
+  <si>
+    <t>그냥 평범했던 것 같아요.</t>
+  </si>
+  <si>
+    <t>크게 느낀 점은 없었습니다.</t>
+  </si>
+  <si>
+    <t>뭐</t>
+  </si>
+  <si>
+    <t>ㅅㅅ</t>
+  </si>
+  <si>
+    <t>음</t>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>ㄷㄷ</t>
+  </si>
+  <si>
+    <t>ㅈㅈ</t>
+  </si>
+  <si>
+    <t>ㄱㄱ</t>
+  </si>
+  <si>
+    <t>무</t>
+  </si>
+  <si>
+    <t>ㅂㅂ</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>ㅌㅌ</t>
+  </si>
+  <si>
+    <t>ㅍㅍ</t>
+  </si>
+  <si>
+    <t>ㅊㅊ</t>
+  </si>
+  <si>
+    <t>ㅉㅉ</t>
+  </si>
+  <si>
+    <t>ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>아무말</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>뭐야</t>
+  </si>
+  <si>
+    <t>그냥</t>
+  </si>
+  <si>
+    <t>뭐지</t>
+  </si>
+  <si>
+    <t>아무 생각 없음</t>
+  </si>
+  <si>
+    <t>다음에는 더 어려운 프로젝트에 도전하고 싶습니다.</t>
+  </si>
+  <si>
+    <t>다양한 시간대 중에 선택할 수 있었으면 좋겠어요</t>
+  </si>
+  <si>
+    <t>직접 만든 게임을 친구들에게 보여주고 싶어요.</t>
+  </si>
+  <si>
+    <t>더 다양한 주제로 교육을 받아보고 싶습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 도전 과제가 있다면 좋겠습니다</t>
+  </si>
+  <si>
+    <t>조금만 더 길게 하지</t>
+  </si>
+  <si>
+    <t>게임이라서 신선했어요</t>
+  </si>
+  <si>
+    <t>이대로 끝내기 아쉬움</t>
+  </si>
+  <si>
+    <t>다음에 또 들을 듯</t>
+  </si>
+  <si>
+    <t>재밌는데 너무 짧다</t>
+  </si>
+  <si>
+    <t>재밌음</t>
   </si>
 </sst>
 </file>
@@ -69,18 +1052,14 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,7 +1148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -221,7 +1200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -337,21 +1316,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -413,59 +1392,1789 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6F5532-D964-4840-85D9-AAA0B19AB3B2}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
+++ b/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\만족도조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D403957-4C6B-4C69-A24A-56D7CB883859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2A510-0A34-472B-8064-081C7CE89014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1800" windowWidth="25485" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1400,7 +1400,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
+++ b/프로젝트/파이썬/만족도조사/만족도조사리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\만족도조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2A510-0A34-472B-8064-081C7CE89014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD0432-14C5-4F45-BC76-26C2E41DD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="343">
   <si>
     <t>결석한 날의 수업도 영상으로 볼 수 있어서 너무 좋았어요.</t>
   </si>
@@ -1043,13 +1043,21 @@
   </si>
   <si>
     <t>재밌음</t>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.gle/W8iM32CbPtJSsjrW9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1060,6 +1068,36 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1079,18 +1117,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1398,1785 +1461,1813 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A353"/>
+  <dimension ref="A1:Q353"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="69.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1">
       <c r="A158" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1">
       <c r="A159" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1">
       <c r="A160" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1">
       <c r="A181" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1">
       <c r="A182" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1">
       <c r="A183" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
       <c r="A184" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1">
       <c r="A193" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1">
       <c r="A194" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1">
       <c r="A197" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1">
       <c r="A198" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1">
       <c r="A199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1">
       <c r="A200" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1">
       <c r="A201" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1">
       <c r="A202" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1">
       <c r="A203" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1">
       <c r="A204" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1">
       <c r="A205" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1">
       <c r="A206" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1">
       <c r="A207" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1">
       <c r="A208" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1">
       <c r="A209" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1">
       <c r="A210" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1">
       <c r="A211" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1">
       <c r="A212" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1">
       <c r="A213" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1">
       <c r="A214" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1">
       <c r="A215" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1">
       <c r="A216" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1">
       <c r="A217" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1">
       <c r="A218" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1">
       <c r="A219" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1">
       <c r="A220" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1">
       <c r="A221" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1">
       <c r="A222" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1">
       <c r="A224" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1">
       <c r="A225" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1">
       <c r="A226" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1">
       <c r="A227" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1">
       <c r="A228" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1">
       <c r="A229" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1">
       <c r="A230" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1">
       <c r="A231" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1">
       <c r="A232" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1">
       <c r="A233" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1">
       <c r="A234" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1">
       <c r="A235" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1">
       <c r="A236" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1">
       <c r="A237" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1">
       <c r="A238" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1">
       <c r="A239" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1">
       <c r="A240" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1">
       <c r="A241" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1">
       <c r="A242" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1">
       <c r="A243" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1">
       <c r="A244" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1">
       <c r="A245" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1">
       <c r="A247" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1">
       <c r="A248" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1">
       <c r="A249" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1">
       <c r="A250" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1">
       <c r="A251" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1">
       <c r="A252" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1">
       <c r="A253" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1">
       <c r="A254" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1">
       <c r="A255" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1">
       <c r="A256" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1">
       <c r="A257" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1">
       <c r="A258" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1">
       <c r="A259" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1">
       <c r="A260" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1">
       <c r="A261" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1">
       <c r="A262" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1">
       <c r="A263" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1">
       <c r="A264" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1">
       <c r="A265" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1">
       <c r="A266" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1">
       <c r="A267" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1">
       <c r="A268" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1">
       <c r="A269" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1">
       <c r="A270" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1">
       <c r="A271" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1">
       <c r="A272" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1">
       <c r="A273" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1">
       <c r="A274" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1">
       <c r="A275" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1">
       <c r="A276" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1">
       <c r="A277" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1">
       <c r="A278" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1">
       <c r="A279" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1">
       <c r="A280" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1">
       <c r="A281" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1">
       <c r="A282" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1">
       <c r="A283" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1">
       <c r="A284" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1">
       <c r="A285" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1">
       <c r="A286" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1">
       <c r="A287" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1">
       <c r="A288" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1">
       <c r="A289" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1">
       <c r="A290" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1">
       <c r="A292" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1">
       <c r="A293" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1">
       <c r="A294" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1">
       <c r="A295" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1">
       <c r="A296" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1">
       <c r="A297" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1">
       <c r="A298" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1">
       <c r="A299" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1">
       <c r="A300" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1">
       <c r="A301" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1">
       <c r="A302" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1">
       <c r="A303" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1">
       <c r="A304" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1">
       <c r="A305" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1">
       <c r="A306" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1">
       <c r="A307" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1">
       <c r="A308" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1">
       <c r="A309" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1">
       <c r="A310" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1">
       <c r="A311" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1">
       <c r="A312" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1">
       <c r="A313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1">
       <c r="A314" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1">
       <c r="A315" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1">
       <c r="A316" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1">
       <c r="A317" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1">
       <c r="A318" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1">
       <c r="A320" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1">
       <c r="A321" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1">
       <c r="A322" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1">
       <c r="A326" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1">
       <c r="A334" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1">
       <c r="A336" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1">
       <c r="A340" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1">
       <c r="A341" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1">
       <c r="A342" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1">
       <c r="A343" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1">
       <c r="A344" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1">
       <c r="A345" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1">
       <c r="A347" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1">
       <c r="A348" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1">
       <c r="A351" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1">
       <c r="A352" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1">
       <c r="A353" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{BD5032D6-47D8-4623-BEAE-BBF429608016}"/>
+  </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>